--- a/Task3/rawdata.xlsx
+++ b/Task3/rawdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aditya Dixit\Desktop\Writing works\PYTHON PRACTICE\Resolute AI task\Task3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54713514-83DE-4699-836E-244463A391DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CC9814-2276-4AAB-B92A-A9716EDCC309}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8472" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inputsheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">inputsheet!$A$1:$H$176</definedName>
     <definedName name="Z_E847955A_662C_4FBF_8B63_721EDEAB319E_.wvu.FilterData" localSheetId="0" hidden="1">inputsheet!$A$1:$G$176</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
     <customWorkbookView name="Filter 1" guid="{E847955A-662C-4FBF-8B63-721EDEAB319E}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
@@ -228,12 +228,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="19" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,18 +450,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H176"/>
+  <dimension ref="A1:M176"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B174" sqref="B174"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L179" sqref="L179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,7 +487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45307</v>
       </c>
@@ -512,7 +513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45307</v>
       </c>
@@ -538,7 +539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45307</v>
       </c>
@@ -563,8 +564,9 @@
       <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45307</v>
       </c>
@@ -589,8 +591,10 @@
       <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45307</v>
       </c>
@@ -616,7 +620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45307</v>
       </c>
@@ -642,7 +646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45307</v>
       </c>
@@ -668,7 +672,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45307</v>
       </c>
@@ -694,7 +698,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45307</v>
       </c>
@@ -720,7 +724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45307</v>
       </c>
@@ -746,7 +750,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45307</v>
       </c>
@@ -772,7 +776,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45307</v>
       </c>
@@ -798,7 +802,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45307</v>
       </c>
@@ -824,7 +828,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45307</v>
       </c>
@@ -850,7 +854,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45307</v>
       </c>
@@ -876,7 +880,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45307</v>
       </c>
@@ -902,7 +906,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45307</v>
       </c>
@@ -928,7 +932,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45307</v>
       </c>
@@ -954,7 +958,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45307</v>
       </c>
@@ -980,7 +984,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45307</v>
       </c>
@@ -1006,7 +1010,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45307</v>
       </c>
@@ -1032,7 +1036,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45307</v>
       </c>
@@ -1058,7 +1062,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45307</v>
       </c>
@@ -1084,7 +1088,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45307</v>
       </c>
@@ -1110,7 +1114,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45307</v>
       </c>
@@ -1136,7 +1140,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45307</v>
       </c>
@@ -1162,7 +1166,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45307</v>
       </c>
@@ -1188,7 +1192,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45307</v>
       </c>
@@ -1214,7 +1218,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45307</v>
       </c>
@@ -1240,7 +1244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45307</v>
       </c>
@@ -1266,7 +1270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45307</v>
       </c>
@@ -1292,7 +1296,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45307</v>
       </c>
@@ -1318,7 +1322,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>45307</v>
       </c>
@@ -1344,7 +1348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>45307</v>
       </c>
@@ -1370,7 +1374,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45307</v>
       </c>
@@ -1396,7 +1400,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>45307</v>
       </c>
@@ -1422,7 +1426,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>45307</v>
       </c>
@@ -1448,7 +1452,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45307</v>
       </c>
@@ -1474,7 +1478,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>45307</v>
       </c>
@@ -1500,7 +1504,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>45307</v>
       </c>
@@ -1526,7 +1530,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>45307</v>
       </c>
@@ -1552,7 +1556,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>45307</v>
       </c>
@@ -1578,7 +1582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>45307</v>
       </c>
@@ -1604,7 +1608,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45307</v>
       </c>
@@ -1630,7 +1634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45307</v>
       </c>
@@ -1656,7 +1660,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45307</v>
       </c>
@@ -1682,7 +1686,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45307</v>
       </c>
@@ -1708,7 +1712,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>45307</v>
       </c>
@@ -1734,7 +1738,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>45307</v>
       </c>
@@ -1760,7 +1764,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>45307</v>
       </c>
@@ -1786,7 +1790,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>45307</v>
       </c>
@@ -1812,7 +1816,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>45307</v>
       </c>
@@ -1838,7 +1842,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>45307</v>
       </c>
@@ -1864,7 +1868,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>45307</v>
       </c>
@@ -1890,7 +1894,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>45307</v>
       </c>
@@ -1916,7 +1920,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>45307</v>
       </c>
@@ -1942,7 +1946,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>45307</v>
       </c>
@@ -1968,7 +1972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>45307</v>
       </c>
@@ -1994,7 +1998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>45307</v>
       </c>
@@ -2020,7 +2024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>45307</v>
       </c>
@@ -2046,7 +2050,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>45307</v>
       </c>
@@ -2072,7 +2076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>45307</v>
       </c>
@@ -2098,7 +2102,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>45307</v>
       </c>
@@ -2124,7 +2128,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>45307</v>
       </c>
@@ -2150,7 +2154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>45307</v>
       </c>
@@ -2176,7 +2180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>45307</v>
       </c>
@@ -2202,7 +2206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>45307</v>
       </c>
@@ -2228,7 +2232,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>45307</v>
       </c>
@@ -2254,7 +2258,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>45307</v>
       </c>
@@ -2280,7 +2284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>45307</v>
       </c>
@@ -2306,7 +2310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>45307</v>
       </c>
@@ -2332,7 +2336,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>45307</v>
       </c>
@@ -2358,7 +2362,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>45307</v>
       </c>
@@ -2384,7 +2388,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>45307</v>
       </c>
@@ -2410,7 +2414,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>45307</v>
       </c>
@@ -2436,7 +2440,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>45307</v>
       </c>
@@ -2462,7 +2466,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>45307</v>
       </c>
@@ -2488,7 +2492,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>45307</v>
       </c>
@@ -2514,7 +2518,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>45307</v>
       </c>
@@ -2540,7 +2544,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>45307</v>
       </c>
@@ -2566,7 +2570,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>45308</v>
       </c>
@@ -2592,7 +2596,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>45308</v>
       </c>
@@ -2618,7 +2622,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>45308</v>
       </c>
@@ -2644,7 +2648,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>45308</v>
       </c>
@@ -2670,7 +2674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>45308</v>
       </c>
@@ -2696,7 +2700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>45308</v>
       </c>
@@ -2722,7 +2726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>45308</v>
       </c>
@@ -2748,7 +2752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>45308</v>
       </c>
@@ -2774,7 +2778,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>45308</v>
       </c>
@@ -2800,7 +2804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>45308</v>
       </c>
@@ -2826,7 +2830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>45308</v>
       </c>
@@ -2852,7 +2856,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>45308</v>
       </c>
@@ -2878,7 +2882,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>45308</v>
       </c>
@@ -2904,7 +2908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>45308</v>
       </c>
@@ -2930,7 +2934,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>45308</v>
       </c>
@@ -2956,7 +2960,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>45308</v>
       </c>
@@ -2982,7 +2986,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>45308</v>
       </c>
@@ -3008,7 +3012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>45308</v>
       </c>
@@ -3034,7 +3038,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>45308</v>
       </c>
@@ -3060,7 +3064,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>45309</v>
       </c>
@@ -3086,7 +3090,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>45309</v>
       </c>
@@ -3112,7 +3116,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>45309</v>
       </c>
@@ -3138,7 +3142,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>45309</v>
       </c>
@@ -3164,7 +3168,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>45309</v>
       </c>
@@ -3190,7 +3194,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>45309</v>
       </c>
@@ -3216,7 +3220,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>45309</v>
       </c>
@@ -3242,7 +3246,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>45309</v>
       </c>
@@ -3268,7 +3272,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>45309</v>
       </c>
@@ -3294,7 +3298,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>45309</v>
       </c>
@@ -3320,7 +3324,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>45309</v>
       </c>
@@ -3346,7 +3350,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>45309</v>
       </c>
@@ -3372,7 +3376,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>45309</v>
       </c>
@@ -3398,7 +3402,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>45309</v>
       </c>
@@ -3424,7 +3428,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>45309</v>
       </c>
@@ -3450,7 +3454,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>45309</v>
       </c>
@@ -3476,7 +3480,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>45309</v>
       </c>
@@ -3502,7 +3506,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>45309</v>
       </c>
@@ -3528,7 +3532,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>45309</v>
       </c>
@@ -3554,7 +3558,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>45309</v>
       </c>
@@ -3580,7 +3584,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>45309</v>
       </c>
@@ -3606,7 +3610,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>45309</v>
       </c>
@@ -3632,7 +3636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>45309</v>
       </c>
@@ -3658,7 +3662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>45309</v>
       </c>
@@ -3684,7 +3688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>45309</v>
       </c>
@@ -3710,7 +3714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>45309</v>
       </c>
@@ -3762,7 +3766,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>45309</v>
       </c>
@@ -3788,7 +3792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>45309</v>
       </c>
@@ -3814,7 +3818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>45309</v>
       </c>
@@ -3840,7 +3844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>45309</v>
       </c>
@@ -3866,7 +3870,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>45309</v>
       </c>
@@ -3892,7 +3896,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>45309</v>
       </c>
@@ -3918,7 +3922,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>45309</v>
       </c>
@@ -3944,7 +3948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>45309</v>
       </c>
@@ -3970,7 +3974,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>45309</v>
       </c>
@@ -3996,7 +4000,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>45309</v>
       </c>
@@ -4022,7 +4026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>45309</v>
       </c>
@@ -4074,7 +4078,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>45309</v>
       </c>
@@ -4100,7 +4104,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>45309</v>
       </c>
@@ -4126,7 +4130,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>45309</v>
       </c>
@@ -4152,7 +4156,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>45309</v>
       </c>
@@ -4178,7 +4182,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>45309</v>
       </c>
@@ -4204,7 +4208,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>45309</v>
       </c>
@@ -4230,7 +4234,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>45309</v>
       </c>
@@ -4256,7 +4260,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>45309</v>
       </c>
@@ -4282,7 +4286,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>45309</v>
       </c>
@@ -4308,7 +4312,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>45309</v>
       </c>
@@ -4334,7 +4338,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>45309</v>
       </c>
@@ -4386,7 +4390,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>45309</v>
       </c>
@@ -4409,7 +4413,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>45309</v>
       </c>
@@ -4435,7 +4439,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>45309</v>
       </c>
@@ -4461,7 +4465,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>45309</v>
       </c>
@@ -4487,7 +4491,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>45309</v>
       </c>
@@ -4513,7 +4517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>45309</v>
       </c>
@@ -4539,7 +4543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>45309</v>
       </c>
@@ -4565,7 +4569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>45309</v>
       </c>
@@ -4591,7 +4595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>45309</v>
       </c>
@@ -4617,7 +4621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>45309</v>
       </c>
@@ -4643,7 +4647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>45309</v>
       </c>
@@ -4669,7 +4673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>45309</v>
       </c>
@@ -4695,7 +4699,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>45309</v>
       </c>
@@ -4721,7 +4725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>45309</v>
       </c>
@@ -4747,7 +4751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>45309</v>
       </c>
@@ -4773,7 +4777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>45309</v>
       </c>
@@ -4799,7 +4803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>45309</v>
       </c>
@@ -4825,7 +4829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>45309</v>
       </c>
@@ -4851,7 +4855,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>45309</v>
       </c>
@@ -4877,7 +4881,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>45309</v>
       </c>
@@ -4903,7 +4907,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>45309</v>
       </c>
@@ -4929,7 +4933,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>45309</v>
       </c>
@@ -4981,7 +4985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>45309</v>
       </c>
@@ -5007,7 +5011,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>45309</v>
       </c>
@@ -5034,7 +5038,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H176" xr:uid="{53D9A98B-1A04-4D21-BDF9-6E1EA2B39F51}"/>
+  <autoFilter ref="A1:H176" xr:uid="{53D9A98B-1A04-4D21-BDF9-6E1EA2B39F51}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2024" month="1" day="18" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="outside"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <customSheetViews>
     <customSheetView guid="{E847955A-662C-4FBF-8B63-721EDEAB319E}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5052,7 +5067,7 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
